--- a/CFFW/pftable.xlsx
+++ b/CFFW/pftable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://colostate-my.sharepoint.com/personal/xander3_colostate_edu/Documents/Xander Personal/Code/eclipse-workspace/CFFW/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Users\Xander\GitHub\cffw-java\CFFW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="248" documentId="11_F25DC773A252ABDACC1048E5091A61125BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D393A53E-8510-45D7-A521-FF72F0B3C94F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5889C385-2841-42F3-898D-D714A5112505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3015" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -357,7 +357,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +554,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>17</v>

--- a/CFFW/pftable.xlsx
+++ b/CFFW/pftable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Users\Xander\GitHub\cffw-java\CFFW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Github\cffw-java\cffw-java\CFFW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5889C385-2841-42F3-898D-D714A5112505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88867FEA-0C8C-4137-BE2E-DFDB6F0D1152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,631 +414,1401 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
         <v>3</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="J3">
-        <v>4</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="I4">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
         <v>5</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-      <c r="I4">
-        <v>8</v>
-      </c>
-      <c r="J4">
-        <v>9</v>
-      </c>
-      <c r="K4">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5">
+      <c r="K5">
         <v>8</v>
-      </c>
-      <c r="E5">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>9</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>11</v>
-      </c>
-      <c r="I5">
-        <v>12</v>
-      </c>
-      <c r="J5">
-        <v>13</v>
-      </c>
-      <c r="K5">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>9</v>
+      </c>
+      <c r="K6">
         <v>10</v>
-      </c>
-      <c r="B6">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>14</v>
-      </c>
-      <c r="F6">
-        <v>16</v>
-      </c>
-      <c r="G6">
-        <v>17</v>
-      </c>
-      <c r="H6">
-        <v>19</v>
-      </c>
-      <c r="I6">
-        <v>20</v>
-      </c>
-      <c r="J6">
-        <v>22</v>
-      </c>
-      <c r="K6">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>9</v>
+      </c>
+      <c r="I7">
         <v>19</v>
       </c>
-      <c r="D7">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>23</v>
-      </c>
-      <c r="F7">
-        <v>25</v>
-      </c>
-      <c r="G7">
-        <v>27</v>
-      </c>
-      <c r="H7">
-        <v>30</v>
-      </c>
-      <c r="I7">
-        <v>32</v>
-      </c>
       <c r="J7">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="K7">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F8">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="G8">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="I8">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="J8">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="K8">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="H9">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="I9">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="J9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="K9">
-        <v>70</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="G10">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="H10">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="I10">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="J10">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="K10">
-        <v>73</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="E11">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="F11">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="G11">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="H11">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I11">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="J11">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K11">
-        <v>97</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E12">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="F12">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="G12">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="H12">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="I12">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="J12">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>121</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="E13">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="F13">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="G13">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="H13">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="I13">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="J13">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>145</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C14">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E14">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="F14">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="G14">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="H14">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="I14">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="J14">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>169</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="E15">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="F15">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="G15">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="H15">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="I15">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="J15">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>192</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="E16">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="F16">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="G16">
-        <v>153</v>
+        <v>24</v>
       </c>
       <c r="H16">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="I16">
-        <v>182</v>
+        <v>28</v>
       </c>
       <c r="J16">
-        <v>199</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>218</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="C17">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="E17">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="F17">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="G17">
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="H17">
-        <v>186</v>
+        <v>30</v>
       </c>
       <c r="I17">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="J17">
-        <v>221</v>
+        <v>35</v>
       </c>
       <c r="K17">
-        <v>242</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="F18">
-        <v>187</v>
+        <v>25</v>
       </c>
       <c r="G18">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="H18">
-        <v>223</v>
+        <v>30</v>
       </c>
       <c r="I18">
-        <v>243</v>
+        <v>32</v>
       </c>
       <c r="J18">
-        <v>266</v>
+        <v>35</v>
       </c>
       <c r="K18">
-        <v>290</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>182</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>199</v>
+        <v>25</v>
       </c>
       <c r="F19">
-        <v>218</v>
+        <v>27</v>
       </c>
       <c r="G19">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="H19">
-        <v>260</v>
+        <v>32</v>
       </c>
       <c r="I19">
-        <v>284</v>
+        <v>35</v>
       </c>
       <c r="J19">
-        <v>310</v>
+        <v>38</v>
       </c>
       <c r="K19">
-        <v>339</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>26</v>
+      </c>
+      <c r="F20">
+        <v>28</v>
+      </c>
+      <c r="G20">
+        <v>31</v>
+      </c>
+      <c r="H20">
+        <v>34</v>
+      </c>
+      <c r="I20">
+        <v>37</v>
+      </c>
+      <c r="J20">
+        <v>40</v>
+      </c>
+      <c r="K20">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>23</v>
+      </c>
+      <c r="D21">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>27</v>
+      </c>
+      <c r="F21">
+        <v>29</v>
+      </c>
+      <c r="G21">
+        <v>32</v>
+      </c>
+      <c r="H21">
+        <v>35</v>
+      </c>
+      <c r="I21">
+        <v>39</v>
+      </c>
+      <c r="J21">
+        <v>42</v>
+      </c>
+      <c r="K21">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>24</v>
+      </c>
+      <c r="D22">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>28</v>
+      </c>
+      <c r="F22">
+        <v>31</v>
+      </c>
+      <c r="G22">
+        <v>34</v>
+      </c>
+      <c r="H22">
+        <v>37</v>
+      </c>
+      <c r="I22">
+        <v>41</v>
+      </c>
+      <c r="J22">
+        <v>44</v>
+      </c>
+      <c r="K22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>29</v>
+      </c>
+      <c r="F23">
+        <v>32</v>
+      </c>
+      <c r="G23">
+        <v>36</v>
+      </c>
+      <c r="H23">
+        <v>39</v>
+      </c>
+      <c r="I23">
+        <v>43</v>
+      </c>
+      <c r="J23">
+        <v>46</v>
+      </c>
+      <c r="K23">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>31</v>
+      </c>
+      <c r="F24">
+        <v>34</v>
+      </c>
+      <c r="G24">
+        <v>38</v>
+      </c>
+      <c r="H24">
+        <v>41</v>
+      </c>
+      <c r="I24">
+        <v>45</v>
+      </c>
+      <c r="J24">
+        <v>48</v>
+      </c>
+      <c r="K24">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>30</v>
+      </c>
+      <c r="E25">
+        <v>32</v>
+      </c>
+      <c r="F25">
+        <v>35</v>
+      </c>
+      <c r="G25">
+        <v>39</v>
+      </c>
+      <c r="H25">
+        <v>43</v>
+      </c>
+      <c r="I25">
+        <v>47</v>
+      </c>
+      <c r="J25">
+        <v>50</v>
+      </c>
+      <c r="K25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>27</v>
+      </c>
+      <c r="C26">
+        <v>29</v>
+      </c>
+      <c r="D26">
+        <v>32</v>
+      </c>
+      <c r="E26">
+        <v>34</v>
+      </c>
+      <c r="F26">
+        <v>37</v>
+      </c>
+      <c r="G26">
+        <v>41</v>
+      </c>
+      <c r="H26">
+        <v>45</v>
+      </c>
+      <c r="I26">
+        <v>49</v>
+      </c>
+      <c r="J26">
+        <v>53</v>
+      </c>
+      <c r="K26">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>30</v>
+      </c>
+      <c r="E27">
+        <v>32</v>
+      </c>
+      <c r="F27">
+        <v>37</v>
+      </c>
+      <c r="G27">
+        <v>42</v>
+      </c>
+      <c r="H27">
+        <v>48</v>
+      </c>
+      <c r="I27">
+        <v>55</v>
+      </c>
+      <c r="J27">
+        <v>60</v>
+      </c>
+      <c r="K27">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>31</v>
+      </c>
+      <c r="D28">
+        <v>34</v>
+      </c>
+      <c r="E28">
+        <v>37</v>
+      </c>
+      <c r="F28">
+        <v>40</v>
+      </c>
+      <c r="G28">
+        <v>44</v>
+      </c>
+      <c r="H28">
+        <v>48</v>
+      </c>
+      <c r="I28">
+        <v>52</v>
+      </c>
+      <c r="J28">
+        <v>57</v>
+      </c>
+      <c r="K28">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>32</v>
+      </c>
+      <c r="D29">
+        <v>35</v>
+      </c>
+      <c r="E29">
+        <v>39</v>
+      </c>
+      <c r="F29">
+        <v>42</v>
+      </c>
+      <c r="G29">
+        <v>46</v>
+      </c>
+      <c r="H29">
+        <v>50</v>
+      </c>
+      <c r="I29">
+        <v>54</v>
+      </c>
+      <c r="J29">
+        <v>59</v>
+      </c>
+      <c r="K29">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>31</v>
+      </c>
+      <c r="C30">
+        <v>33</v>
+      </c>
+      <c r="D30">
+        <v>36</v>
+      </c>
+      <c r="E30">
+        <v>40</v>
+      </c>
+      <c r="F30">
+        <v>43</v>
+      </c>
+      <c r="G30">
+        <v>47</v>
+      </c>
+      <c r="H30">
+        <v>52</v>
+      </c>
+      <c r="I30">
+        <v>56</v>
+      </c>
+      <c r="J30">
+        <v>61</v>
+      </c>
+      <c r="K30">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>35</v>
+      </c>
+      <c r="D31">
+        <v>37</v>
+      </c>
+      <c r="E31">
+        <v>42</v>
+      </c>
+      <c r="F31">
+        <v>45</v>
+      </c>
+      <c r="G31">
+        <v>49</v>
+      </c>
+      <c r="H31">
+        <v>54</v>
+      </c>
+      <c r="I31">
+        <v>59</v>
+      </c>
+      <c r="J31">
+        <v>63</v>
+      </c>
+      <c r="K31">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <v>36</v>
+      </c>
+      <c r="D32">
+        <v>39</v>
+      </c>
+      <c r="E32">
+        <v>43</v>
+      </c>
+      <c r="F32">
+        <v>47</v>
+      </c>
+      <c r="G32">
+        <v>51</v>
+      </c>
+      <c r="H32">
+        <v>56</v>
+      </c>
+      <c r="I32">
+        <v>61</v>
+      </c>
+      <c r="J32">
+        <v>66</v>
+      </c>
+      <c r="K32">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>44</v>
+      </c>
+      <c r="C33">
+        <v>48</v>
+      </c>
+      <c r="D33">
+        <v>52</v>
+      </c>
+      <c r="E33">
+        <v>57</v>
+      </c>
+      <c r="F33">
+        <v>62</v>
+      </c>
+      <c r="G33">
+        <v>68</v>
+      </c>
+      <c r="H33">
+        <v>74</v>
+      </c>
+      <c r="I33">
+        <v>81</v>
+      </c>
+      <c r="J33">
+        <v>89</v>
+      </c>
+      <c r="K33">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>50</v>
+      </c>
+      <c r="B34">
+        <v>55</v>
+      </c>
+      <c r="C34">
+        <v>60</v>
+      </c>
+      <c r="D34">
+        <v>65</v>
+      </c>
+      <c r="E34">
+        <v>71</v>
+      </c>
+      <c r="F34">
+        <v>78</v>
+      </c>
+      <c r="G34">
+        <v>85</v>
+      </c>
+      <c r="H34">
+        <v>93</v>
+      </c>
+      <c r="I34">
+        <v>101</v>
+      </c>
+      <c r="J34">
+        <v>111</v>
+      </c>
+      <c r="K34">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>60</v>
+      </c>
+      <c r="B35">
+        <v>66</v>
+      </c>
+      <c r="C35">
+        <v>72</v>
+      </c>
+      <c r="D35">
+        <v>78</v>
+      </c>
+      <c r="E35">
+        <v>85</v>
+      </c>
+      <c r="F35">
+        <v>93</v>
+      </c>
+      <c r="G35">
+        <v>102</v>
+      </c>
+      <c r="H35">
+        <v>111</v>
+      </c>
+      <c r="I35">
+        <v>122</v>
+      </c>
+      <c r="J35">
+        <v>133</v>
+      </c>
+      <c r="K35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>70</v>
+      </c>
+      <c r="B36">
+        <v>76</v>
+      </c>
+      <c r="C36">
+        <v>84</v>
+      </c>
+      <c r="D36">
+        <v>91</v>
+      </c>
+      <c r="E36">
+        <v>100</v>
+      </c>
+      <c r="F36">
+        <v>109</v>
+      </c>
+      <c r="G36">
+        <v>119</v>
+      </c>
+      <c r="H36">
+        <v>130</v>
+      </c>
+      <c r="I36">
+        <v>142</v>
+      </c>
+      <c r="J36">
+        <v>155</v>
+      </c>
+      <c r="K36">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>80</v>
+      </c>
+      <c r="B37">
+        <v>87</v>
+      </c>
+      <c r="C37">
+        <v>95</v>
+      </c>
+      <c r="D37">
+        <v>104</v>
+      </c>
+      <c r="E37">
+        <v>114</v>
+      </c>
+      <c r="F37">
+        <v>124</v>
+      </c>
+      <c r="G37">
+        <v>136</v>
+      </c>
+      <c r="H37">
+        <v>148</v>
+      </c>
+      <c r="I37">
+        <v>162</v>
+      </c>
+      <c r="J37">
+        <v>177</v>
+      </c>
+      <c r="K37">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>90</v>
+      </c>
+      <c r="B38">
+        <v>98</v>
+      </c>
+      <c r="C38">
+        <v>107</v>
+      </c>
+      <c r="D38">
+        <v>117</v>
+      </c>
+      <c r="E38">
+        <v>128</v>
+      </c>
+      <c r="F38">
+        <v>140</v>
+      </c>
+      <c r="G38">
+        <v>153</v>
+      </c>
+      <c r="H38">
+        <v>167</v>
+      </c>
+      <c r="I38">
+        <v>182</v>
+      </c>
+      <c r="J38">
+        <v>199</v>
+      </c>
+      <c r="K38">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>100</v>
+      </c>
+      <c r="B39">
+        <v>109</v>
+      </c>
+      <c r="C39">
+        <v>119</v>
+      </c>
+      <c r="D39">
+        <v>130</v>
+      </c>
+      <c r="E39">
+        <v>142</v>
+      </c>
+      <c r="F39">
+        <v>156</v>
+      </c>
+      <c r="G39">
+        <v>170</v>
+      </c>
+      <c r="H39">
+        <v>186</v>
+      </c>
+      <c r="I39">
+        <v>203</v>
+      </c>
+      <c r="J39">
+        <v>221</v>
+      </c>
+      <c r="K39">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>120</v>
+      </c>
+      <c r="B40">
+        <v>131</v>
+      </c>
+      <c r="C40">
+        <v>143</v>
+      </c>
+      <c r="D40">
+        <v>156</v>
+      </c>
+      <c r="E40">
+        <v>171</v>
+      </c>
+      <c r="F40">
+        <v>187</v>
+      </c>
+      <c r="G40">
+        <v>204</v>
+      </c>
+      <c r="H40">
+        <v>223</v>
+      </c>
+      <c r="I40">
+        <v>243</v>
+      </c>
+      <c r="J40">
+        <v>266</v>
+      </c>
+      <c r="K40">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>140</v>
+      </c>
+      <c r="B41">
+        <v>153</v>
+      </c>
+      <c r="C41">
+        <v>167</v>
+      </c>
+      <c r="D41">
+        <v>182</v>
+      </c>
+      <c r="E41">
+        <v>199</v>
+      </c>
+      <c r="F41">
+        <v>218</v>
+      </c>
+      <c r="G41">
+        <v>238</v>
+      </c>
+      <c r="H41">
+        <v>260</v>
+      </c>
+      <c r="I41">
+        <v>284</v>
+      </c>
+      <c r="J41">
+        <v>310</v>
+      </c>
+      <c r="K41">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>180</v>
       </c>
-      <c r="B20">
+      <c r="B42">
         <v>197</v>
       </c>
-      <c r="C20">
+      <c r="C42">
         <v>215</v>
       </c>
-      <c r="D20">
+      <c r="D42">
         <v>235</v>
       </c>
-      <c r="E20">
+      <c r="E42">
         <v>256</v>
       </c>
-      <c r="F20">
+      <c r="F42">
         <v>280</v>
       </c>
-      <c r="G20">
+      <c r="G42">
         <v>306</v>
       </c>
-      <c r="H20">
+      <c r="H42">
         <v>334</v>
       </c>
-      <c r="I20">
+      <c r="I42">
         <v>365</v>
       </c>
-      <c r="J20">
+      <c r="J42">
         <v>399</v>
       </c>
-      <c r="K20">
+      <c r="K42">
         <v>435</v>
       </c>
     </row>
